--- a/key_value_storage/measurements/results/memory-hashtable.xlsx
+++ b/key_value_storage/measurements/results/memory-hashtable.xlsx
@@ -76,193 +76,193 @@
     <t>Δ Allocated memory</t>
   </si>
   <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>5560</t>
-  </si>
-  <si>
-    <t>64420</t>
-  </si>
-  <si>
-    <t>797408</t>
-  </si>
-  <si>
-    <t>9855284</t>
-  </si>
-  <si>
-    <t>115964016</t>
-  </si>
-  <si>
-    <t>1330170320</t>
+    <t>404</t>
+  </si>
+  <si>
+    <t>4772</t>
+  </si>
+  <si>
+    <t>63420</t>
+  </si>
+  <si>
+    <t>796304</t>
+  </si>
+  <si>
+    <t>9853972</t>
+  </si>
+  <si>
+    <t>115962544</t>
+  </si>
+  <si>
+    <t>1330168636</t>
   </si>
   <si>
     <t>Δ Reclaimed memory</t>
   </si>
   <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>4680</t>
-  </si>
-  <si>
-    <t>55748</t>
-  </si>
-  <si>
-    <t>712704</t>
-  </si>
-  <si>
-    <t>8983316</t>
-  </si>
-  <si>
-    <t>107250192</t>
-  </si>
-  <si>
-    <t>1243730924</t>
+    <t>284</t>
+  </si>
+  <si>
+    <t>3960</t>
+  </si>
+  <si>
+    <t>54832</t>
+  </si>
+  <si>
+    <t>711668</t>
+  </si>
+  <si>
+    <t>8982072</t>
+  </si>
+  <si>
+    <t>107248788</t>
+  </si>
+  <si>
+    <t>1243729324</t>
   </si>
   <si>
     <t>Δ Heap memory</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>8672</t>
-  </si>
-  <si>
-    <t>84704</t>
-  </si>
-  <si>
-    <t>871968</t>
-  </si>
-  <si>
-    <t>8713824</t>
-  </si>
-  <si>
-    <t>86439468</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>8588</t>
+  </si>
+  <si>
+    <t>84636</t>
+  </si>
+  <si>
+    <t>871900</t>
+  </si>
+  <si>
+    <t>8713756</t>
+  </si>
+  <si>
+    <t>86439384</t>
   </si>
   <si>
     <t>Δ Instructions</t>
   </si>
   <si>
-    <t>16018</t>
-  </si>
-  <si>
-    <t>106518</t>
-  </si>
-  <si>
-    <t>1248444</t>
-  </si>
-  <si>
-    <t>15382540</t>
-  </si>
-  <si>
-    <t>183885994</t>
-  </si>
-  <si>
-    <t>2126364922</t>
-  </si>
-  <si>
-    <t>24214947703</t>
+    <t>8942</t>
+  </si>
+  <si>
+    <t>92300</t>
+  </si>
+  <si>
+    <t>1231535</t>
+  </si>
+  <si>
+    <t>15362394</t>
+  </si>
+  <si>
+    <t>183863366</t>
+  </si>
+  <si>
+    <t>2126338898</t>
+  </si>
+  <si>
+    <t>24214923130</t>
   </si>
   <si>
     <t>Δ GC instructions</t>
   </si>
   <si>
-    <t>4723</t>
-  </si>
-  <si>
-    <t>20249</t>
-  </si>
-  <si>
-    <t>197947</t>
-  </si>
-  <si>
-    <t>1937373</t>
-  </si>
-  <si>
-    <t>19876401</t>
-  </si>
-  <si>
-    <t>199516086</t>
-  </si>
-  <si>
-    <t>1983098684</t>
+    <t>2709</t>
+  </si>
+  <si>
+    <t>18733</t>
+  </si>
+  <si>
+    <t>195933</t>
+  </si>
+  <si>
+    <t>1935857</t>
+  </si>
+  <si>
+    <t>19874885</t>
+  </si>
+  <si>
+    <t>199514559</t>
+  </si>
+  <si>
+    <t>1983096659</t>
   </si>
   <si>
     <t>Δ Mutator instructions</t>
   </si>
   <si>
-    <t>22201</t>
-  </si>
-  <si>
-    <t>113763</t>
-  </si>
-  <si>
-    <t>1266309</t>
-  </si>
-  <si>
-    <t>15506626</t>
-  </si>
-  <si>
-    <t>185072080</t>
-  </si>
-  <si>
-    <t>2138171029</t>
-  </si>
-  <si>
-    <t>24332953842</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>2348</t>
-  </si>
-  <si>
-    <t>21788</t>
-  </si>
-  <si>
-    <t>219196</t>
-  </si>
-  <si>
-    <t>2199052</t>
-  </si>
-  <si>
-    <t>22138668</t>
-  </si>
-  <si>
-    <t>223737780</t>
-  </si>
-  <si>
-    <t>1239738112</t>
-  </si>
-  <si>
-    <t>6993</t>
-  </si>
-  <si>
-    <t>46696</t>
-  </si>
-  <si>
-    <t>505538</t>
-  </si>
-  <si>
-    <t>6081082</t>
-  </si>
-  <si>
-    <t>68794273</t>
-  </si>
-  <si>
-    <t>774863824</t>
-  </si>
-  <si>
-    <t>8735952215</t>
-  </si>
-  <si>
-    <t>19544871438</t>
+    <t>15048</t>
+  </si>
+  <si>
+    <t>99468</t>
+  </si>
+  <si>
+    <t>1249323</t>
+  </si>
+  <si>
+    <t>15486403</t>
+  </si>
+  <si>
+    <t>185049375</t>
+  </si>
+  <si>
+    <t>2138144928</t>
+  </si>
+  <si>
+    <t>24332929192</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>21560</t>
+  </si>
+  <si>
+    <t>218988</t>
+  </si>
+  <si>
+    <t>2198844</t>
+  </si>
+  <si>
+    <t>22138456</t>
+  </si>
+  <si>
+    <t>223737544</t>
+  </si>
+  <si>
+    <t>1239737976</t>
+  </si>
+  <si>
+    <t>3116</t>
+  </si>
+  <si>
+    <t>41885</t>
+  </si>
+  <si>
+    <t>500003</t>
+  </si>
+  <si>
+    <t>6074392</t>
+  </si>
+  <si>
+    <t>68787288</t>
+  </si>
+  <si>
+    <t>774855402</t>
+  </si>
+  <si>
+    <t>8735941719</t>
+  </si>
+  <si>
+    <t>19544869454</t>
   </si>
   <si>
     <t>-368</t>
@@ -277,91 +277,91 @@
     <t>-485392</t>
   </si>
   <si>
-    <t>13176</t>
-  </si>
-  <si>
-    <t>53941</t>
-  </si>
-  <si>
-    <t>523403</t>
-  </si>
-  <si>
-    <t>6205168</t>
-  </si>
-  <si>
-    <t>69980359</t>
-  </si>
-  <si>
-    <t>786669931</t>
-  </si>
-  <si>
-    <t>8853958354</t>
-  </si>
-  <si>
-    <t>20724877598</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>2792</t>
-  </si>
-  <si>
-    <t>25832</t>
-  </si>
-  <si>
-    <t>259248</t>
-  </si>
-  <si>
-    <t>2599056</t>
-  </si>
-  <si>
-    <t>26138576</t>
-  </si>
-  <si>
-    <t>263737384</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>58683</t>
-  </si>
-  <si>
-    <t>608345</t>
-  </si>
-  <si>
-    <t>7114119</t>
-  </si>
-  <si>
-    <t>79173636</t>
-  </si>
-  <si>
-    <t>879692353</t>
-  </si>
-  <si>
-    <t>9800831852</t>
-  </si>
-  <si>
-    <t>16190</t>
-  </si>
-  <si>
-    <t>65928</t>
-  </si>
-  <si>
-    <t>626210</t>
-  </si>
-  <si>
-    <t>7238205</t>
-  </si>
-  <si>
-    <t>80359722</t>
-  </si>
-  <si>
-    <t>891498460</t>
-  </si>
-  <si>
-    <t>9918837991</t>
+    <t>9222</t>
+  </si>
+  <si>
+    <t>49053</t>
+  </si>
+  <si>
+    <t>517791</t>
+  </si>
+  <si>
+    <t>6198401</t>
+  </si>
+  <si>
+    <t>69973297</t>
+  </si>
+  <si>
+    <t>786661432</t>
+  </si>
+  <si>
+    <t>8853947781</t>
+  </si>
+  <si>
+    <t>20724875537</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>2552</t>
+  </si>
+  <si>
+    <t>25560</t>
+  </si>
+  <si>
+    <t>259004</t>
+  </si>
+  <si>
+    <t>2598812</t>
+  </si>
+  <si>
+    <t>26138328</t>
+  </si>
+  <si>
+    <t>263737104</t>
+  </si>
+  <si>
+    <t>5123</t>
+  </si>
+  <si>
+    <t>52883</t>
+  </si>
+  <si>
+    <t>601803</t>
+  </si>
+  <si>
+    <t>7106350</t>
+  </si>
+  <si>
+    <t>79165200</t>
+  </si>
+  <si>
+    <t>879683692</t>
+  </si>
+  <si>
+    <t>9800821471</t>
+  </si>
+  <si>
+    <t>11229</t>
+  </si>
+  <si>
+    <t>60051</t>
+  </si>
+  <si>
+    <t>619591</t>
+  </si>
+  <si>
+    <t>7230359</t>
+  </si>
+  <si>
+    <t>80351209</t>
+  </si>
+  <si>
+    <t>891489722</t>
+  </si>
+  <si>
+    <t>9918827533</t>
   </si>
   <si>
     <t>393216</t>
@@ -376,136 +376,136 @@
     <t>357171200</t>
   </si>
   <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>9136</t>
-  </si>
-  <si>
-    <t>99860</t>
-  </si>
-  <si>
-    <t>1166680</t>
-  </si>
-  <si>
-    <t>13389496</t>
-  </si>
-  <si>
-    <t>151115516</t>
-  </si>
-  <si>
-    <t>1687299408</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>10016</t>
-  </si>
-  <si>
-    <t>108532</t>
-  </si>
-  <si>
-    <t>1251384</t>
-  </si>
-  <si>
-    <t>14261464</t>
-  </si>
-  <si>
-    <t>159829340</t>
-  </si>
-  <si>
-    <t>1773738756</t>
-  </si>
-  <si>
-    <t>-136</t>
-  </si>
-  <si>
-    <t>-880</t>
-  </si>
-  <si>
-    <t>-8672</t>
-  </si>
-  <si>
-    <t>-84704</t>
-  </si>
-  <si>
-    <t>-871968</t>
-  </si>
-  <si>
-    <t>-8713824</t>
-  </si>
-  <si>
-    <t>-86439348</t>
-  </si>
-  <si>
-    <t>23463</t>
-  </si>
-  <si>
-    <t>163854</t>
-  </si>
-  <si>
-    <t>1877358</t>
-  </si>
-  <si>
-    <t>22708523</t>
-  </si>
-  <si>
-    <t>261333071</t>
-  </si>
-  <si>
-    <t>2972430959</t>
-  </si>
-  <si>
-    <t>33585500268</t>
-  </si>
-  <si>
-    <t>19624871446</t>
-  </si>
-  <si>
-    <t>-3280</t>
-  </si>
-  <si>
-    <t>-20249</t>
-  </si>
-  <si>
-    <t>-197947</t>
-  </si>
-  <si>
-    <t>-1937005</t>
-  </si>
-  <si>
-    <t>-19871617</t>
-  </si>
-  <si>
-    <t>-199467098</t>
-  </si>
-  <si>
-    <t>-1982613260</t>
-  </si>
-  <si>
-    <t>29646</t>
-  </si>
-  <si>
-    <t>171099</t>
-  </si>
-  <si>
-    <t>1895223</t>
-  </si>
-  <si>
-    <t>22832609</t>
-  </si>
-  <si>
-    <t>262519157</t>
-  </si>
-  <si>
-    <t>2984237098</t>
-  </si>
-  <si>
-    <t>33703506407</t>
-  </si>
-  <si>
-    <t>20804877606</t>
+    <t>720</t>
+  </si>
+  <si>
+    <t>8320</t>
+  </si>
+  <si>
+    <t>98760</t>
+  </si>
+  <si>
+    <t>1165372</t>
+  </si>
+  <si>
+    <t>13388060</t>
+  </si>
+  <si>
+    <t>151114256</t>
+  </si>
+  <si>
+    <t>1687297832</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>107348</t>
+  </si>
+  <si>
+    <t>1250008</t>
+  </si>
+  <si>
+    <t>14259960</t>
+  </si>
+  <si>
+    <t>159828012</t>
+  </si>
+  <si>
+    <t>1773737096</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>-812</t>
+  </si>
+  <si>
+    <t>-8588</t>
+  </si>
+  <si>
+    <t>-84636</t>
+  </si>
+  <si>
+    <t>-871900</t>
+  </si>
+  <si>
+    <t>-8713756</t>
+  </si>
+  <si>
+    <t>-86439264</t>
+  </si>
+  <si>
+    <t>9970</t>
+  </si>
+  <si>
+    <t>148111</t>
+  </si>
+  <si>
+    <t>1856182</t>
+  </si>
+  <si>
+    <t>22678714</t>
+  </si>
+  <si>
+    <t>261303700</t>
+  </si>
+  <si>
+    <t>2972407056</t>
+  </si>
+  <si>
+    <t>33585469435</t>
+  </si>
+  <si>
+    <t>19624869454</t>
+  </si>
+  <si>
+    <t>-1266</t>
+  </si>
+  <si>
+    <t>-18733</t>
+  </si>
+  <si>
+    <t>-195933</t>
+  </si>
+  <si>
+    <t>-1935489</t>
+  </si>
+  <si>
+    <t>-19870101</t>
+  </si>
+  <si>
+    <t>-199465571</t>
+  </si>
+  <si>
+    <t>-1982611235</t>
+  </si>
+  <si>
+    <t>16076</t>
+  </si>
+  <si>
+    <t>155279</t>
+  </si>
+  <si>
+    <t>1873970</t>
+  </si>
+  <si>
+    <t>22802723</t>
+  </si>
+  <si>
+    <t>262489709</t>
+  </si>
+  <si>
+    <t>2984213118</t>
+  </si>
+  <si>
+    <t>33703475497</t>
+  </si>
+  <si>
+    <t>20804875537</t>
   </si>
 </sst>
 </file>
@@ -886,8 +886,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1168,7 +1167,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
